--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2719.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2719.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.166676486288037</v>
+        <v>1.259705424308777</v>
       </c>
       <c r="B1">
-        <v>2.401612994608123</v>
+        <v>2.889725208282471</v>
       </c>
       <c r="C1">
-        <v>-1</v>
+        <v>4.130145072937012</v>
       </c>
       <c r="D1">
-        <v>2.359090604348681</v>
+        <v>0.4835052788257599</v>
       </c>
       <c r="E1">
-        <v>1.213341201669595</v>
+        <v>0.6254622340202332</v>
       </c>
     </row>
   </sheetData>
